--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-06.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-06.xlsx
@@ -63515,10 +63515,10 @@
         <v>814</v>
       </c>
       <c r="F309">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G309">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H309">
         <v>5.7</v>
@@ -63527,145 +63527,145 @@
         <v>6.2</v>
       </c>
       <c r="J309">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K309">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L309">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="M309">
+        <v>2.08</v>
+      </c>
+      <c r="N309">
+        <v>1.93</v>
+      </c>
+      <c r="O309">
+        <v>1.96</v>
+      </c>
+      <c r="P309">
+        <v>1.92</v>
+      </c>
+      <c r="Q309">
         <v>2.04</v>
       </c>
-      <c r="N309">
-        <v>1.98</v>
-      </c>
-      <c r="O309">
-        <v>2.02</v>
-      </c>
-      <c r="P309">
-        <v>1.96</v>
-      </c>
-      <c r="Q309">
+      <c r="R309">
+        <v>1.97</v>
+      </c>
+      <c r="S309">
         <v>2.1</v>
       </c>
-      <c r="R309">
-        <v>1.91</v>
-      </c>
-      <c r="S309">
-        <v>2.04</v>
-      </c>
       <c r="T309">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="U309">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V309">
+        <v>19</v>
+      </c>
+      <c r="W309">
+        <v>20</v>
+      </c>
+      <c r="X309">
+        <v>40</v>
+      </c>
+      <c r="Y309">
+        <v>46</v>
+      </c>
+      <c r="Z309">
+        <v>44</v>
+      </c>
+      <c r="AA309">
+        <v>160</v>
+      </c>
+      <c r="AB309">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC309">
+        <v>8.6</v>
+      </c>
+      <c r="AD309">
+        <v>8.6</v>
+      </c>
+      <c r="AE309">
+        <v>9.4</v>
+      </c>
+      <c r="AF309">
+        <v>20</v>
+      </c>
+      <c r="AG309">
+        <v>23</v>
+      </c>
+      <c r="AH309">
+        <v>34</v>
+      </c>
+      <c r="AI309">
+        <v>85</v>
+      </c>
+      <c r="AJ309">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK309">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AL309">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM309">
+        <v>10.5</v>
+      </c>
+      <c r="AN309">
+        <v>19.5</v>
+      </c>
+      <c r="AO309">
+        <v>22</v>
+      </c>
+      <c r="AP309">
+        <v>36</v>
+      </c>
+      <c r="AQ309">
+        <v>85</v>
+      </c>
+      <c r="AR309">
         <v>15</v>
       </c>
-      <c r="W309">
-        <v>23</v>
-      </c>
-      <c r="X309">
-        <v>4.2</v>
-      </c>
-      <c r="Y309">
-        <v>55</v>
-      </c>
-      <c r="Z309">
-        <v>4.5</v>
-      </c>
-      <c r="AA309">
-        <v>190</v>
-      </c>
-      <c r="AB309">
-        <v>7.4</v>
-      </c>
-      <c r="AC309">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD309">
-        <v>7.6</v>
-      </c>
-      <c r="AE309">
-        <v>11.5</v>
-      </c>
-      <c r="AF309">
-        <v>18.5</v>
-      </c>
-      <c r="AG309">
-        <v>28</v>
-      </c>
-      <c r="AH309">
-        <v>4.4</v>
-      </c>
-      <c r="AI309">
-        <v>100</v>
-      </c>
-      <c r="AJ309">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK309">
-        <v>11.5</v>
-      </c>
-      <c r="AL309">
-        <v>9</v>
-      </c>
-      <c r="AM309">
-        <v>12.5</v>
-      </c>
-      <c r="AN309">
-        <v>19</v>
-      </c>
-      <c r="AO309">
-        <v>28</v>
-      </c>
-      <c r="AP309">
-        <v>4.4</v>
-      </c>
-      <c r="AQ309">
-        <v>110</v>
-      </c>
-      <c r="AR309">
-        <v>13.5</v>
-      </c>
       <c r="AS309">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AT309">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU309">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV309">
-        <v>4.2</v>
+        <v>32</v>
       </c>
       <c r="AW309">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AX309">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="AY309">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AZ309">
-        <v>3.35</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA309">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="BB309">
-        <v>4.4</v>
+        <v>38</v>
       </c>
       <c r="BC309">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="BD309">
-        <v>4.6</v>
+        <v>16.5</v>
       </c>
       <c r="BE309">
         <v>1000</v>
